--- a/flights.xlsx
+++ b/flights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickart/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A63D64-08FB-3D4D-A4CD-B38C30168EAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB94A7DC-F318-AF44-92D3-32129B2D022D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-68800" yWindow="740" windowWidth="68460" windowHeight="26100" xr2:uid="{9540114C-9046-BD4E-90F1-5C3C1CE197D6}"/>
   </bookViews>
@@ -1064,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26682C81-9387-1942-AFB8-3EFDC0FDBA47}">
   <dimension ref="A1:M526"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A461" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="J479" sqref="J479"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20710,7 +20710,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="J479" s="5">
-        <v>0.47916666666666669</v>
+        <v>0.89583333333333337</v>
       </c>
       <c r="K479" s="3">
         <v>0</v>
